--- a/Hardware/Basic/Top/Omni-BASIC-TOP-BOM.xlsx
+++ b/Hardware/Basic/Top/Omni-BASIC-TOP-BOM.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orlandohoilett/Documents/Milestones/Git/Tasks-Tutorials-Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayantanmukhuti/Desktop/PURDUE/SPRING 2021/SMARTWATCH_COURSE/omni/Hardware/Basic/Top/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F0319-899B-F545-ABC0-B856698FB7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1152A4-EC9E-8344-9622-DFB77E81EFDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -225,173 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4414EC97-401B-5C4D-BF38-03085F1F044A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{42ADFC76-2A16-3F4B-9937-20E1DF8DC9D9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{92578C3E-17AC-CF40-B33B-C67DBD723ACA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B87F5F84-059E-824D-B1C3-C6D21A6C0FC3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8D3ED184-945A-F444-9885-2E4FC0FBB6A7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Orlando Hoilett:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is just an example to show you what information to list and how to list them.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
       <text>
         <r>
           <rPr>
@@ -429,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="197">
   <si>
     <t>BOM #</t>
   </si>
@@ -470,18 +313,12 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Price per unit</t>
   </si>
   <si>
-    <t>10k resistor</t>
-  </si>
-  <si>
     <t>0603</t>
   </si>
   <si>
@@ -494,15 +331,6 @@
     <t>1uF capacitor</t>
   </si>
   <si>
-    <t>LM358</t>
-  </si>
-  <si>
-    <t>Photoresistor</t>
-  </si>
-  <si>
-    <t>9V Battery Connector</t>
-  </si>
-  <si>
     <t>1µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -515,94 +343,526 @@
     <t>Per 100</t>
   </si>
   <si>
-    <t>White  LED Indication - Discrete 2.9V Radial</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
-    <t>Radial</t>
-  </si>
-  <si>
-    <t>American Bright Optoelectronics Corporation</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02</t>
-  </si>
-  <si>
-    <t>BL-BZX3V4V-1-B02-ND</t>
-  </si>
-  <si>
-    <t>White LED</t>
-  </si>
-  <si>
-    <t>Battery Connector, Snap 9V 1 Cell Wire Leads - 4" (101.6mm)</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>81-4</t>
-  </si>
-  <si>
-    <t>36-81-4-ND</t>
-  </si>
-  <si>
-    <t>9V</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit  8-SOIC</t>
-  </si>
-  <si>
-    <t>8-SOIC</t>
-  </si>
-  <si>
-    <t>LM358DR</t>
-  </si>
-  <si>
-    <t>296-1014-1-ND</t>
-  </si>
-  <si>
-    <t>OP1</t>
-  </si>
-  <si>
     <t>Total (in Bulk)</t>
   </si>
   <si>
-    <t>CDS Cell 520nm 27 ~ 60kOhms @ 10 lux</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
-    <t>Advanced Photonix</t>
-  </si>
-  <si>
-    <t>PDV-P8104</t>
-  </si>
-  <si>
-    <t>PDV-P8104-ND</t>
-  </si>
-  <si>
     <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R1,R2,R3</t>
-  </si>
-  <si>
     <t>RMCF0603FT10K0</t>
   </si>
   <si>
     <t>RMCF0603FT10K0CT-ND</t>
   </si>
   <si>
-    <t>Design Name -- Revision Code / Designer or Organization Name</t>
+    <t>Omni Basic Top Board Rev A / Purdue Milestones</t>
+  </si>
+  <si>
+    <t>C1, C3, C6</t>
+  </si>
+  <si>
+    <t>4.7 uF Capacitor</t>
+  </si>
+  <si>
+    <t>red 622nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A475KO8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1784-1-ND</t>
+  </si>
+  <si>
+    <t>C1, C7</t>
+  </si>
+  <si>
+    <t>10 uF 0603 Capacitor</t>
+  </si>
+  <si>
+    <t>10µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>GRM188R61A106KE69J</t>
+  </si>
+  <si>
+    <t>490-14372-1-ND</t>
+  </si>
+  <si>
+    <t>C4, C16</t>
+  </si>
+  <si>
+    <t>12pF capacitor</t>
+  </si>
+  <si>
+    <t>12pF ±5% 50V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Walsin Technology Corporation</t>
+  </si>
+  <si>
+    <t>0603N120J500CT</t>
+  </si>
+  <si>
+    <t>1292-1480-1-ND</t>
+  </si>
+  <si>
+    <t>C5, C8</t>
+  </si>
+  <si>
+    <t>47 pF Capacitor</t>
+  </si>
+  <si>
+    <t>47pF ±5% 50V Ceramic Capacitor C0G, NP0 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>0603N470J500CT</t>
+  </si>
+  <si>
+    <t>1292-1528-1-ND</t>
+  </si>
+  <si>
+    <t>100 nF Capacitor</t>
+  </si>
+  <si>
+    <t>0.1µF ±5% 16V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB104</t>
+  </si>
+  <si>
+    <t>311-1776-1-ND</t>
+  </si>
+  <si>
+    <t>C11, C13</t>
+  </si>
+  <si>
+    <t>C12, C14</t>
+  </si>
+  <si>
+    <t>2.2u capacitor</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A225KO8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1040-1-ND</t>
+  </si>
+  <si>
+    <t>C17, C18, C19, C20, C21</t>
+  </si>
+  <si>
+    <t>MCP73831 T Li-Ion, Li-Pol Controller</t>
+  </si>
+  <si>
+    <t>Charger IC Lithium-Ion/Polymer SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OT</t>
+  </si>
+  <si>
+    <t>MCP73831T-2ACI/OTCT-ND</t>
+  </si>
+  <si>
+    <t>CHRG1</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>Diode Schottky 30V 1.5A Surface Mount USC</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>Toshiba Semiconductor and Storage</t>
+  </si>
+  <si>
+    <t>CUS15S30,H3F</t>
+  </si>
+  <si>
+    <t>CUS15S30H3FCT-ND</t>
+  </si>
+  <si>
+    <t>D1, D2, D3</t>
+  </si>
+  <si>
+    <t>Cortex Debug Connector - 10 pin</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 10 position 0.050" (1.27mm)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>20021111-00010T4LF</t>
+  </si>
+  <si>
+    <t>609-3712-ND</t>
+  </si>
+  <si>
+    <t>DEBUG1 CORTEX_DEBUG_PTH</t>
+  </si>
+  <si>
+    <t>10µH Inductor</t>
+  </si>
+  <si>
+    <t>10µH Shielded Multilayer Inductor 250mA 1.05Ohm 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>MLZ1608M100WTD25</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>MIC5504 Voltage Regulator</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC  1 Output  300mA SOT-23-5</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>MIC5504-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>576-4764-1-ND</t>
+  </si>
+  <si>
+    <t>LD01</t>
+  </si>
+  <si>
+    <t>Red LED</t>
+  </si>
+  <si>
+    <t>Red 622nm LED Indication - Discrete 2.2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Inolux</t>
+  </si>
+  <si>
+    <t>IN-S63ATR</t>
+  </si>
+  <si>
+    <t>1830-1065-1-ND</t>
+  </si>
+  <si>
+    <t>LED1, LED3</t>
+  </si>
+  <si>
+    <t>Blue LED</t>
+  </si>
+  <si>
+    <t>Blue 470nm LED Indication - Discrete 3V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>IN-S63AT5B</t>
+  </si>
+  <si>
+    <t>1830-1061-1-ND</t>
+  </si>
+  <si>
+    <t>Yellow LED</t>
+  </si>
+  <si>
+    <t>Yellow 590nm LED Indication - Discrete 2V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Wurth Electronics Inc.</t>
+  </si>
+  <si>
+    <t>150060YS75000</t>
+  </si>
+  <si>
+    <t>732-4981-1-ND</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>10k Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2, R10, R13</t>
+  </si>
+  <si>
+    <t>100k Resistor</t>
+  </si>
+  <si>
+    <t>100 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT100KCT-ND</t>
+  </si>
+  <si>
+    <t>R3, R6, R7</t>
+  </si>
+  <si>
+    <t>1k Resistor</t>
+  </si>
+  <si>
+    <t>1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>R8, R9, R14, R16</t>
+  </si>
+  <si>
+    <t>27 ohm resistor</t>
+  </si>
+  <si>
+    <t>27 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27R0</t>
+  </si>
+  <si>
+    <t>RMCF0603FT27R0CT-ND</t>
+  </si>
+  <si>
+    <t>R11, R12</t>
+  </si>
+  <si>
+    <t>390k resistor</t>
+  </si>
+  <si>
+    <t>390 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FG390K</t>
+  </si>
+  <si>
+    <t>RMCF0603FG390KCT-ND</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>Tiny Rectangular Button</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t>Gull Wing</t>
+  </si>
+  <si>
+    <t>C&amp;K Components</t>
+  </si>
+  <si>
+    <t>PTS830GM140 SMTR LFS</t>
+  </si>
+  <si>
+    <t>CKN10587CT-ND</t>
+  </si>
+  <si>
+    <t>RESET, SW1</t>
+  </si>
+  <si>
+    <t>SWITCH.MOM (TACTILE_SWITCH_SMD_6.2MM_TALL)</t>
+  </si>
+  <si>
+    <t>Tactile Switch SPST-NO Top Actuated Surface Mount - TACT 4.5 X 4.5, 3.8 MM H, 1.8N,</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS 647 SM38 SMTR2 LFS</t>
+  </si>
+  <si>
+    <t>PTS647SM38SMTR2LFSCT-ND</t>
+  </si>
+  <si>
+    <t>SW2, SW3</t>
+  </si>
+  <si>
+    <t>NRF52832_MODULE_MDBT42</t>
+  </si>
+  <si>
+    <t>Bluetooth Bluetooth v4.2 Transceiver Module 2.4GHz Integrated, Chip Surface Mount</t>
+  </si>
+  <si>
+    <t>41-SMD Module</t>
+  </si>
+  <si>
+    <t>Seeed Technology Co., Ltd</t>
+  </si>
+  <si>
+    <t>317030213</t>
+  </si>
+  <si>
+    <t>1597-1434-ND</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>FT231XS USB Serial</t>
+  </si>
+  <si>
+    <t>USB Bridge, USB to UART USB 2.0 UART Interface 20-SSOP</t>
+  </si>
+  <si>
+    <t>20-SSOP</t>
+  </si>
+  <si>
+    <t>FTDI, Future Technology Devices International Ltd</t>
+  </si>
+  <si>
+    <t>FT231XS-U</t>
+  </si>
+  <si>
+    <t>768-1156-5-ND</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>0.96" OLED</t>
+  </si>
+  <si>
+    <t>Datasheet 128x64 OLED Module SPI 0.96"Graphic Displays,White on Black</t>
+  </si>
+  <si>
+    <t>Flexible Connector</t>
+  </si>
+  <si>
+    <t>EastRising</t>
+  </si>
+  <si>
+    <t>https://www.buydisplay.com/datasheet-128x64-oled-module-spi-0-96-inch-graphic-displays-white-on-black</t>
+  </si>
+  <si>
+    <t>BuyDisplay.com</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>Micro USB</t>
+  </si>
+  <si>
+    <t>USB - micro B USB 2.0 Receptacle Connector 5 Position Surface Mount, Right Angle</t>
+  </si>
+  <si>
+    <t>Flange, Horizontal</t>
+  </si>
+  <si>
+    <t>Amphenol FCI</t>
+  </si>
+  <si>
+    <t>10118192-0001LF</t>
+  </si>
+  <si>
+    <t>609-4613-1-ND</t>
+  </si>
+  <si>
+    <t>USB1</t>
+  </si>
+  <si>
+    <t>CRYSTALECS-.327-12.5-12-C-TR (CRYSTAL) (32.7680kHz)</t>
+  </si>
+  <si>
+    <t>32.768kHz ±10ppm Crystal 12.5pF 90 kOhms 2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>2-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>ECS-.327-12.5-12-C-TR</t>
+  </si>
+  <si>
+    <t>XC2288CT-ND</t>
+  </si>
+  <si>
+    <t>XTAL1</t>
+  </si>
+  <si>
+    <t>CONN_07-1.27MM (CONN_07)</t>
+  </si>
+  <si>
+    <t>50 Position Header Connector 0.050" (1.27mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>LPPB501NFFN-RC</t>
+  </si>
+  <si>
+    <t>S9008E-50-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN_07-1.27MM </t>
+  </si>
+  <si>
+    <t>50 Positions Header Connector 0.050" (1.27mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>GRPB501VWVN-RC</t>
+  </si>
+  <si>
+    <t>S9014E-50-ND</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>4.7k resistor</t>
+  </si>
+  <si>
+    <t>4.7 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70</t>
+  </si>
+  <si>
+    <t>RMCF0603FT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
 </sst>
 </file>
@@ -613,7 +873,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -652,13 +912,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI Historic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Historic"/>
@@ -684,11 +937,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI Historic"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -856,21 +1126,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -885,13 +1146,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,405 +1618,1554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="73.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="6">
-        <f>SUM(M3:M77)</f>
-        <v>2.48</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="6">
-        <f>SUM(O3:O77)</f>
-        <v>1.1271</v>
+      <c r="A1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11">
+        <f>SUM(M3:M72)</f>
+        <v>101.4115</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="11">
+        <f>SUM(O3:O72)</f>
+        <v>0.19009999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>14</v>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <f>1</f>
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="K3" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M22" si="0">K3*L3</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="O3" s="7">
+        <f>L3*N3</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A24" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" si="0"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16">
+        <f t="shared" ref="O4" si="2">L4*N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="16">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="L5" s="15">
+        <v>2</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16">
+        <f>L5*N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="L6" s="15">
+        <v>2</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16">
+        <f t="shared" ref="O6" si="3">L6*N6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16">
+        <f t="shared" ref="O7:O8" si="4">L7*N7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="16">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="L8" s="15">
+        <v>2</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="0"/>
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="16">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L9" s="15">
+        <v>5</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.15800000000000003</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16">
+        <f t="shared" ref="O9:O11" si="5">L9*N9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L11" s="15">
+        <v>3</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.69</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16">
+        <f t="shared" ref="O12" si="6">L12*N12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.22</v>
+      </c>
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0.1346</v>
+      </c>
+      <c r="O13" s="16">
+        <f t="shared" ref="O13:O22" si="7">L13*N13</f>
+        <v>0.1346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="B15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="J15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L15" s="15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L16" s="15">
         <v>1</v>
       </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
-        <v>0.38</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.1391</v>
-      </c>
-      <c r="O3" s="10">
-        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
-        <v>0.1391</v>
+      <c r="M16" s="16">
+        <f t="shared" si="0"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L18" s="15">
+        <v>4</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L19" s="15">
+        <v>3</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="0"/>
+        <v>1.77E-2</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L20" s="15">
+        <v>4</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L21" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="M21" s="16">
+        <f t="shared" si="0"/>
+        <v>1.18E-2</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L22" s="15">
+        <v>1</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L23" s="27">
+        <v>2</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="16">
+        <f t="shared" ref="O23:O32" si="8">L23*N23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="B24" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.1208</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" ref="M24:M26" si="9">K24*L24</f>
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <f>A24+1</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="16">
+        <v>10.1</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="9"/>
+        <v>10.1</v>
+      </c>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <f t="shared" ref="A26:A32" si="10">A25+1</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="9"/>
+        <v>2.12</v>
+      </c>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="21">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L27" s="27">
+        <v>1</v>
+      </c>
+      <c r="M27" s="28">
+        <v>75.3</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0.43</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" ref="M28:M32" si="11">K28*L28</f>
+        <v>0.43</v>
+      </c>
+      <c r="N28" s="15"/>
+      <c r="O28" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="11"/>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K30" s="16">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="L30" s="15">
+        <v>1</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="11"/>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="N30" s="15"/>
+      <c r="O30" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="B31" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="16">
+        <v>3.11</v>
+      </c>
+      <c r="L31" s="15">
+        <v>1</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="11"/>
+        <v>3.11</v>
+      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="B32" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="J32" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" s="16">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="L32" s="15">
         <v>1</v>
       </c>
-      <c r="M4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.3982</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>0.3982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="N6" s="10">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="1"/>
-        <v>9.0899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="11">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="N7" s="10">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="1"/>
-        <v>2.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="10">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="O8" s="10">
-        <f>L8*N8</f>
-        <v>1.8499999999999999E-2</v>
+      <c r="M32" s="16">
+        <f t="shared" si="11"/>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H27" r:id="rId1" xr:uid="{E7BCC7B9-D357-9046-A2E1-175686AC1EEE}"/>
+    <hyperlink ref="I27" r:id="rId2" xr:uid="{B71EB50C-C44F-DF4C-852F-7EC12F2CCF11}"/>
+    <hyperlink ref="J27" r:id="rId3" xr:uid="{61C5E6A2-5B68-6541-84C3-DB547148498A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
